--- a/Docs/Leeruikomsten 2.xlsx
+++ b/Docs/Leeruikomsten 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\FHICT\Semester 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\FHICT\Semester 3\Individueel project\GitHub\NietDiscord-GH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E75F1-0302-4EC0-BD85-F1E86387689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E27E7B-934F-4FA0-8C6A-77938EDE1D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Leeruikomt</t>
   </si>
@@ -125,9 +125,6 @@
     </r>
   </si>
   <si>
-    <t>Ik heb meerdere diagrammen gemaakt die aangeven dat ik een full-stack applicatie ga maken. Ik heb een componenten diagram gemaakt die duidelijk weergeeft welke onderdelen ik ga gebruiken. Ik heb een back-end gemaakt in .NET en een front-end in Vue.js. Mijn database is met entity framework gemaakt. Er word gebruik gemaakt van REST en van websockets.</t>
-  </si>
-  <si>
     <t>De applicatie moet onderhoud baar zijn doormiddel van testen, veiligheid en duidelijke code.</t>
   </si>
   <si>
@@ -226,26 +223,26 @@
     <t>Advanced</t>
   </si>
   <si>
-    <t>Ik moet de websockets nog laten weergegeven in de front-end ook moet ik nog andere keywords gebruiken dan post en get. Hiervoor moet ik dus een put en een delet gaan maken. Dit wil ik doen op een vriendenlijst</t>
-  </si>
-  <si>
-    <t>Ik heb een front-end test geschreven op cypress en een unit test projectje opgezet. Ik heb sonarqube op mijn project gezed. Dit is een automatic code review software.</t>
-  </si>
-  <si>
-    <t>Ik ga nog unit testen schrijven en mijn testplan hierop aanpasssen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik wil in de yamml file nog zorgen dat mijn app op docker gedeployed wordt. gedeployed wordt. </t>
-  </si>
-  <si>
-    <t>Ik heb een pipeline aangemaakt op gitlab. Ik heb ook een runner lokaal draaien zodat de pipeline ook werkt. Ik heb het overgezet naar github en de actions bouwen zowel mijn front end en back end plus testen.</t>
+    <t>Ik moet alleen nog bij de account settings een werkende get en put hebben</t>
+  </si>
+  <si>
+    <t>Ik heb een front-end test geschreven op cypress en een unit test projectje opgezet. Ik heb sonarqube op mijn project gezed. Dit is een automatic code review software. Ook word er een Non functional test en performance test uitgevoerd. Dit staat allemaal beschreven in mijn testplan</t>
+  </si>
+  <si>
+    <t>Ik heb meerdere diagrammen gemaakt die aangeven dat ik een full-stack applicatie ga maken. Ik heb een componenten diagram gemaakt die duidelijk weergeeft welke onderdelen ik ga gebruiken. Ik heb een back-end gemaakt in .NET en een front-end in Vue.js. Mijn database is met entity framework gemaakt. Er word gebruik gemaakt van REST en van websockets. Ook heb ik een UX document gemaakt</t>
+  </si>
+  <si>
+    <t>Ik moet zorgen dat mijn back-end via docker desktop gedraaid wordt</t>
+  </si>
+  <si>
+    <t>Ik heb een pipeline aangemaakt op gitlab. Ik heb ook een runner lokaal draaien zodat de pipeline ook werkt. Ik heb het overgezet naar github en de actions bouwen zowel mijn front end en back end plus testen. In de git wordt de sonarcloud scan uitgevoerd en wordt het gepushed naar docker hub.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,13 +252,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -336,17 +326,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -363,24 +348,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -392,27 +376,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -728,7 +710,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,22 +740,22 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -781,51 +763,49 @@
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
